--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_2.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,99 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_2_1</t>
+          <t>model_1_2_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8834629169126121</v>
+        <v>0.9179701896694284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7025960130615786</v>
+        <v>0.6653834764061117</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7411436877018667</v>
+        <v>0.7620817503314823</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8538354497746912</v>
+        <v>0.8867312075996967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4850887195222637</v>
+        <v>0.2633392492598734</v>
       </c>
       <c r="G2" t="n">
-        <v>1.988741830076665</v>
+        <v>2.237582234039748</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9259140197390526</v>
+        <v>0.8510197837715442</v>
       </c>
       <c r="I2" t="n">
-        <v>0.715806895138128</v>
+        <v>0.3712335180406626</v>
       </c>
       <c r="J2" t="n">
-        <v>0.737690361066295</v>
+        <v>1.655771412271953</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6964831078513417</v>
+        <v>0.5131659081231658</v>
       </c>
       <c r="L2" t="n">
-        <v>8.458373317592823</v>
+        <v>0.8882998327413494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7074520205723208</v>
+        <v>0.521247758198396</v>
       </c>
       <c r="N2" t="n">
-        <v>131.4468469558474</v>
+        <v>36.66862431379541</v>
       </c>
       <c r="O2" t="n">
-        <v>272.7820194990638</v>
+        <v>73.63320790202123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>model_1_2_8</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9186281760915719</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6646882652080045</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7640871913314899</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8908509646091987</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2612269238780131</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.242231114522644</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8438464375966672</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3577311944464894</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.606107293873966</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.511103633207604</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8891958142523532</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5191530045144328</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.6847316185159</v>
+      </c>
+      <c r="O3" t="n">
+        <v>73.64931520674172</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9181534289821752</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6641249953425881</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.763325564263178</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8899788496550926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.2627509984415527</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.245997702706303</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8465707334583443</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3605895131032693</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.618476719497825</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.512592429169172</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.8885493501033875</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5206652475241456</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36.67309693852889</v>
+      </c>
+      <c r="O4" t="n">
+        <v>73.63768052675471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_6</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9103851984115957</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6537085991936424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7578344394798817</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8818445645075014</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2876892495272267</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.315652191717396</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8662121684144861</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3872492772633229</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.711619355605903</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5363667118000769</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.8779713340072792</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.5448139513409235</v>
+      </c>
+      <c r="N5" t="n">
+        <v>36.49174875215434</v>
+      </c>
+      <c r="O5" t="n">
+        <v>73.45633234038016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.908970980977133</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6521990119905994</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.75626105790174</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8796501861924072</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2922292936402245</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.325746808295156</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8718400630895933</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3944412563121115</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.737845910504543</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5405823652693681</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8760455911177981</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5490959971382486</v>
+      </c>
+      <c r="N6" t="n">
+        <v>36.46043306534101</v>
+      </c>
+      <c r="O6" t="n">
+        <v>73.42501665356683</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9017586946164016</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6442290592784926</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7488694070950794</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8700632676824598</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3153828041509565</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.379041918779271</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8982795694324789</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.4258619628474044</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.844904577145722</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5615895335126506</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8662246054351</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5704340072818987</v>
+      </c>
+      <c r="N7" t="n">
+        <v>36.30793625340751</v>
+      </c>
+      <c r="O7" t="n">
+        <v>73.27251984163334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8947021427330657</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6370246058238074</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7410950027143044</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8602867530845925</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3380363622639448</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.427218132204209</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9260881631166447</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4579040622768359</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.946974605528616</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5814089458066025</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8566156837216214</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5905655555073367</v>
+      </c>
+      <c r="N8" t="n">
+        <v>36.16920361724589</v>
+      </c>
+      <c r="O8" t="n">
+        <v>73.13378720547171</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8926248832463731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6343647762197988</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7394949982899033</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8590503592009908</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.344704961783304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.445004425013603</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.931811286169141</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4619562892086043</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.962560400475844</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5871157992962751</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8537870750588911</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.596362286234711</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36.13013282213074</v>
+      </c>
+      <c r="O9" t="n">
+        <v>73.09471641035657</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_1_2_1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8825089943709049</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6248701815128279</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7278208681287441</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8449086375335118</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.377179870250443</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.508494823537707</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.973568972850648</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5083051640797734</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.105367810597665</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6141497132218194</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8400122476539982</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6238219572805832</v>
+      </c>
+      <c r="N10" t="n">
+        <v>35.95006619179403</v>
+      </c>
+      <c r="O10" t="n">
+        <v>72.91464978001986</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
           <t>model_1_2_0</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.8813615381023342</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7007309641635089</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7402223658415118</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8522397410121872</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4938357649202045</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.001213420645818</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.929209534612231</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.723621507731072</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7447470713953696</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7027344910563338</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8.592861561450611</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.713801856813701</v>
-      </c>
-      <c r="N3" t="n">
-        <v>131.4111045534938</v>
-      </c>
-      <c r="O3" t="n">
-        <v>272.7462770967102</v>
+      <c r="B11" t="n">
+        <v>0.8834969630042286</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.618731889447165</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7382011942134916</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8686781444840684</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.3740082072032739</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.549541610845031</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9364391483313943</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4304016436099686</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.85373216134011</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6115621041262072</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.841357566644056</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6211935959283752</v>
+      </c>
+      <c r="N11" t="n">
+        <v>35.9669550748292</v>
+      </c>
+      <c r="O11" t="n">
+        <v>72.93153866305502</v>
       </c>
     </row>
   </sheetData>
